--- a/results-ready/metrics.xlsx
+++ b/results-ready/metrics.xlsx
@@ -5,21 +5,20 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Desktop/PEDRO/PUC/Ciência da Computação/TCC/Experimentacoes/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Documents/GitHub/balanced_ensemble_credit_scoring/results-ready/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E144B1D5-66EC-2B4C-9099-F57F793193FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91255E-2CD9-0949-A6EA-E1C01B214DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="metrics" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics-rank" sheetId="3" r:id="rId2"/>
-    <sheet name="metrics-agg" sheetId="5" r:id="rId3"/>
+    <sheet name="metrics" sheetId="3" r:id="rId1"/>
+    <sheet name="metrics-agg" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -156,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,12 +286,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -671,15 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,7 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,7 +747,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -809,71 +792,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1965,7 +1884,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFBCC25F-FDA8-884D-957B-6FAF01C69F0A}" name="Tabela dinâmica2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Datasets">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFBCC25F-FDA8-884D-957B-6FAF01C69F0A}" name="Tabela dinâmica2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Datasets">
   <location ref="A1:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -2189,192 +2108,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A21DE6EC-7BB9-FA48-89B5-321BB7AF8638}" name="Tabela1" displayName="Tabela1" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A1:Q31" xr:uid="{B91AE8B4-90FE-6B45-9113-24D5666F4FC7}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D453B41-1CBA-9D47-82FC-3F8C4DE18256}" name="Tabela13" displayName="Tabela13" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:Q31" xr:uid="{A09A842F-D96E-5F47-9AB6-8E36C4A8B317}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{025D0060-66E6-6040-B583-456C70352C1B}" name="Index" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{72406C6E-2C4E-4A44-8915-55979D613E7C}" name="Dataset" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{DB929382-9D82-F148-A567-8AD8B4DD42C5}" name="Classifiers" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{AA4EE71C-AAFC-1E4D-A36B-72A5EC1213C7}" name="FPR" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{62E45009-7FFA-6C47-B9DC-2493F879A68B}" name="FNR" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{E4D32476-B518-DF46-999A-732698A9102F}" name="AUC" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{211D0C42-0397-5546-8B48-B8259FDC0623}" name="F1 Score" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{FAED69F2-36F4-0C44-9C31-F67245E70A5F}" name="KS Result" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{ACF13A59-18F8-1C49-93A8-AA7659F19FA5}" name="KS p-value" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{C5A829BF-D035-D24A-B57A-44F7B5991532}" name="PSI" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{880FF766-C719-EB4E-99B5-8A2D2F4E69A9}" name="Rank FPR" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{3A11340C-EE13-CA4A-B4C3-7ABA6B801D1B}" name="Rank FNR" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{B892DB15-21F8-2346-BDA7-E40E8A16DE66}" name="Rank AUC" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{D58B1F56-A28D-7C45-AFCC-C996721A8162}" name="Rank F1 Score" dataDxfId="57"/>
-    <tableColumn id="15" xr3:uid="{3A213095-4876-694D-B3FC-6E7C937F3166}" name="Rank KS Result" dataDxfId="56"/>
-    <tableColumn id="16" xr3:uid="{DD841FBF-6A93-9841-99C5-58286310D99E}" name="Rank KS p-value" dataDxfId="55"/>
-    <tableColumn id="17" xr3:uid="{B652B975-C849-D74C-BF92-2E86127A0204}" name="Rank PSI" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{0B7B09A0-A7DF-DD41-B383-3026C8C0DFD7}" name="Index" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{95628F00-8259-724C-B001-7B84C6BC5C0D}" name="Dataset" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{573DA197-E3B5-6E4F-912D-7E56D627ABAC}" name="Classifiers" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{0C94CF42-ECF2-CF48-A16E-2E8A664058C4}" name="FPR" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{1D0F68FD-1816-864D-96F1-824F0A4065EA}" name="FNR" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{DF638C13-917A-7342-AAE0-92F1058EE825}" name="AUC" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{76AAE4FD-9410-134B-91D5-2672114CB7E0}" name="F1 Score" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{A69F042C-8696-8D40-9853-504574AF6AD1}" name="KS Result" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{2B82E27D-5B82-B042-8388-D2B63037EECE}" name="KS p-value" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{AB70C128-03D9-4A43-8AFF-D37B2E9107C4}" name="PSI" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{FA8023AF-70EA-A948-BD17-91CF907FDDB1}" name="Rank FPR" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{B7AD8ADE-7698-0E49-89CC-25E27A713185}" name="Rank FNR" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{270F4967-2D0A-324D-975F-5F788D1D2BE0}" name="Rank AUC" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{92FE14D9-E399-7D4B-9690-D7730258255D}" name="Rank F1 Score" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{A81E27E1-6F85-7F40-AC65-3FC95B3132DD}" name="Rank KS Result" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{05C070F0-C7E6-1D4A-9ACD-B3873A82D56D}" name="Rank KS p-value" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{69E8467B-D98A-BB49-AB14-FD9C28E896AD}" name="Rank PSI" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D453B41-1CBA-9D47-82FC-3F8C4DE18256}" name="Tabela13" displayName="Tabela13" ref="A1:Q31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q31" xr:uid="{A09A842F-D96E-5F47-9AB6-8E36C4A8B317}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q31">
-    <sortCondition ref="A1:A31"/>
-  </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{0B7B09A0-A7DF-DD41-B383-3026C8C0DFD7}" name="Index" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{95628F00-8259-724C-B001-7B84C6BC5C0D}" name="Dataset" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{573DA197-E3B5-6E4F-912D-7E56D627ABAC}" name="Classifiers" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0C94CF42-ECF2-CF48-A16E-2E8A664058C4}" name="FPR" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1D0F68FD-1816-864D-96F1-824F0A4065EA}" name="FNR" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DF638C13-917A-7342-AAE0-92F1058EE825}" name="AUC" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{76AAE4FD-9410-134B-91D5-2672114CB7E0}" name="F1 Score" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{A69F042C-8696-8D40-9853-504574AF6AD1}" name="KS Result" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{2B82E27D-5B82-B042-8388-D2B63037EECE}" name="KS p-value" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{AB70C128-03D9-4A43-8AFF-D37B2E9107C4}" name="PSI" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{FA8023AF-70EA-A948-BD17-91CF907FDDB1}" name="Rank FPR" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{B7AD8ADE-7698-0E49-89CC-25E27A713185}" name="Rank FNR" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{270F4967-2D0A-324D-975F-5F788D1D2BE0}" name="Rank AUC" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{92FE14D9-E399-7D4B-9690-D7730258255D}" name="Rank F1 Score" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{A81E27E1-6F85-7F40-AC65-3FC95B3132DD}" name="Rank KS Result" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{05C070F0-C7E6-1D4A-9ACD-B3873A82D56D}" name="Rank KS p-value" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{69E8467B-D98A-BB49-AB14-FD9C28E896AD}" name="Rank PSI" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DED7E511-DDA9-B740-A70A-50E4ED7F2BFC}" name="Tabela3" displayName="Tabela3" ref="D2:E7" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+  <autoFilter ref="D2:E7" xr:uid="{26204619-A45C-D04E-9DAB-3FBECD5AC29E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8B885AE0-4312-3740-A4AD-2F71B8D3CC61}" name="Classifier" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{2F4EA737-1A06-1B4F-A0D8-7593AABF9D17}" name="Média de Rank KS Result" dataDxfId="30"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DED7E511-DDA9-B740-A70A-50E4ED7F2BFC}" name="Tabela3" displayName="Tabela3" ref="D2:E7" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
-  <autoFilter ref="D2:E7" xr:uid="{26204619-A45C-D04E-9DAB-3FBECD5AC29E}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B718115C-E233-AE4C-BB28-C3F69E5DEEB5}" name="Tabela4" displayName="Tabela4" ref="D8:E13" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="D8:E13" xr:uid="{A6642247-1FD8-284A-B54C-4A63697BEFC7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8B885AE0-4312-3740-A4AD-2F71B8D3CC61}" name="Classifier" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{2F4EA737-1A06-1B4F-A0D8-7593AABF9D17}" name="Média de Rank KS Result" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{EA22C403-80CC-BC45-91C5-31D26863C65A}" name="Classifier" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{0A8F665C-D7DE-624C-8D38-E2FC61BFC0D0}" name="Média de Rank PSI" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B718115C-E233-AE4C-BB28-C3F69E5DEEB5}" name="Tabela4" displayName="Tabela4" ref="D8:E13" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="D8:E13" xr:uid="{A6642247-1FD8-284A-B54C-4A63697BEFC7}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBDA8587-C95D-7A45-8FB6-BC8120999946}" name="Tabela5" displayName="Tabela5" ref="D14:E19" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="D14:E19" xr:uid="{F16D9237-A48D-CB4A-B97A-ED877C933442}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EA22C403-80CC-BC45-91C5-31D26863C65A}" name="Classifier" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{0A8F665C-D7DE-624C-8D38-E2FC61BFC0D0}" name="Média de Rank PSI" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{D5493821-8563-4545-A350-9479A5630696}" name="Classifier" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{269F6B71-511B-C64B-9F30-2DD1CFD72543}" name="Média de Rank FPR" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBDA8587-C95D-7A45-8FB6-BC8120999946}" name="Tabela5" displayName="Tabela5" ref="D14:E19" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="D14:E19" xr:uid="{F16D9237-A48D-CB4A-B97A-ED877C933442}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{51214C52-B902-A84B-BBDE-422300610964}" name="Tabela6" displayName="Tabela6" ref="D20:E25" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="D20:E25" xr:uid="{F5DCF02A-0E7C-B641-9917-852D43D5E2A3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D5493821-8563-4545-A350-9479A5630696}" name="Classifier" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{269F6B71-511B-C64B-9F30-2DD1CFD72543}" name="Média de Rank FPR" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{9BC4076E-1ED4-F040-8B22-B3B392CC3EA8}" name="Classifier" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{FD292113-7298-D148-933B-BBD0BCD15B3A}" name="Média de Rank AUC" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{51214C52-B902-A84B-BBDE-422300610964}" name="Tabela6" displayName="Tabela6" ref="D20:E25" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
-  <autoFilter ref="D20:E25" xr:uid="{F5DCF02A-0E7C-B641-9917-852D43D5E2A3}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CA97B270-4BE2-214F-9FA8-D8071267F0CA}" name="Tabela7" displayName="Tabela7" ref="F8:G13" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="F8:G13" xr:uid="{076F74C5-A9B7-634C-AD0D-AD59576D2492}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9BC4076E-1ED4-F040-8B22-B3B392CC3EA8}" name="Classifier" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{FD292113-7298-D148-933B-BBD0BCD15B3A}" name="Média de Rank AUC" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{A9406C42-4F66-4747-9C73-FF59D3A0C2DB}" name="Classifier" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3B26E75E-50F7-8D47-BBD3-79FBE25580EB}" name="Média de Rank KS p-value" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CA97B270-4BE2-214F-9FA8-D8071267F0CA}" name="Tabela7" displayName="Tabela7" ref="F8:G13" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="F8:G13" xr:uid="{076F74C5-A9B7-634C-AD0D-AD59576D2492}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEDDC3D5-1FCC-F248-B10C-62FBEAECD37B}" name="Tabela8" displayName="Tabela8" ref="F14:G19" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="F14:G19" xr:uid="{806A11FD-3B22-894D-B2B2-9B01CB515E2A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A9406C42-4F66-4747-9C73-FF59D3A0C2DB}" name="Classifier" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{3B26E75E-50F7-8D47-BBD3-79FBE25580EB}" name="Média de Rank KS p-value" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4F084EF5-77A3-1A4C-A7BD-08D5FB26C2C8}" name="Classifier" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6E8C6E74-BADE-7849-8E71-291DEBE2B31B}" name="Média de Rank F1 Score" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DEDDC3D5-1FCC-F248-B10C-62FBEAECD37B}" name="Tabela8" displayName="Tabela8" ref="F14:G19" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="F14:G19" xr:uid="{806A11FD-3B22-894D-B2B2-9B01CB515E2A}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59C2F05A-C4B4-A145-A744-34594F95711D}" name="Tabela9" displayName="Tabela9" ref="F20:G25" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="F20:G25" xr:uid="{77BF0F2A-4004-CE40-9853-04D8B8ACFBD0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4F084EF5-77A3-1A4C-A7BD-08D5FB26C2C8}" name="Classifier" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6E8C6E74-BADE-7849-8E71-291DEBE2B31B}" name="Média de Rank F1 Score" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{59C2F05A-C4B4-A145-A744-34594F95711D}" name="Tabela9" displayName="Tabela9" ref="F20:G25" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="F20:G25" xr:uid="{77BF0F2A-4004-CE40-9853-04D8B8ACFBD0}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{487F29DB-AFF0-5E46-BF2E-985306F01439}" name="Classifier" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{53124247-7236-F841-A2E2-9210F8728A12}" name="Média de Rank FNR" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{487F29DB-AFF0-5E46-BF2E-985306F01439}" name="Classifier" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{53124247-7236-F841-A2E2-9210F8728A12}" name="Média de Rank FNR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2676,1827 +2509,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD140F4-F794-B149-ACF3-B36202CDA592}">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.147826086956521</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8.6956521739130405E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.94886578449905401</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.87046632124352297</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.77391304347825995</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.13752646679777E-32</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.6073438386347303E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3">
-        <v>8</v>
-      </c>
-      <c r="P2" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>20</v>
-      </c>
-      <c r="R2" s="19"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.182608695652173</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.6086956521739094E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.94428166351606801</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.85858585858585801</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.75217391304347803</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.0925804419807001E-30</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.30154327943467901</v>
-      </c>
-      <c r="K3" s="3">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3">
-        <v>6</v>
-      </c>
-      <c r="O3" s="3">
-        <v>10</v>
-      </c>
-      <c r="P3" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>27</v>
-      </c>
-      <c r="R3" s="19"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.147826086956521</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.6086956521739094E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.941587901701323</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.87628865979381398</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.78260869565217395</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.26008858121077E-33</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.57004278769431005</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3">
-        <v>9</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3">
-        <v>7</v>
-      </c>
-      <c r="P4" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>28</v>
-      </c>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.19130434782608599</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.4347826086956499E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.926086956521739</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.86567164179104406</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.75434782608695605</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.2637279344775099E-30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.30856788215708E-2</v>
-      </c>
-      <c r="K5" s="3">
-        <v>16</v>
-      </c>
-      <c r="L5" s="3">
-        <v>6</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
-        <v>9</v>
-      </c>
-      <c r="P5" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>19</v>
-      </c>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.147826086956521</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.6086956521739094E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.94735349716446104</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.87628865979381398</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.79130434782608605</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.2983828060719E-34</v>
-      </c>
-      <c r="J6" s="1">
-        <v>9.2802067480779599E-2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3">
-        <v>8</v>
-      </c>
-      <c r="M6" s="3">
-        <v>7</v>
-      </c>
-      <c r="N6" s="3">
-        <v>2</v>
-      </c>
-      <c r="O6" s="3">
-        <v>6</v>
-      </c>
-      <c r="P6" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>23</v>
-      </c>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.24285714285714199</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.25555555555555498</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.82804232804232802</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.64423076923076905</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.55873015873015797</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.88638739524597E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>21</v>
-      </c>
-      <c r="L7" s="3">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3">
-        <v>16</v>
-      </c>
-      <c r="N7" s="3">
-        <v>11</v>
-      </c>
-      <c r="O7" s="3">
-        <v>15</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>21</v>
-      </c>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.314285714285714</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.266666666666666</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.81121693121693095</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.59459459459459396</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.50634920634920599</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2.8865798640253999E-15</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.59183572479383</v>
-      </c>
-      <c r="K8" s="3">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3">
-        <v>17</v>
-      </c>
-      <c r="M8" s="3">
-        <v>17</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13</v>
-      </c>
-      <c r="O8" s="3">
-        <v>17</v>
-      </c>
-      <c r="P8" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>30</v>
-      </c>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.34761904761904699</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.79735449735449704</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.60085836909871204</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.473015873015873</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2.74891220897188E-13</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.91897062409925701</v>
-      </c>
-      <c r="K9" s="3">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3">
-        <v>13</v>
-      </c>
-      <c r="M9" s="3">
-        <v>19</v>
-      </c>
-      <c r="N9" s="3">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3">
-        <v>19</v>
-      </c>
-      <c r="P9" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>29</v>
-      </c>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.83253968253968202</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.64864864864864802</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.56825396825396801</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.9730399220564601E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>23</v>
-      </c>
-      <c r="L10" s="3">
-        <v>11</v>
-      </c>
-      <c r="M10" s="3">
-        <v>15</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10</v>
-      </c>
-      <c r="O10" s="3">
-        <v>12</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>18</v>
-      </c>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.27619047619047599</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.344444444444444</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.75312169312169297</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.57004830917874405</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.395238095238095</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2.66111399582769E-9</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.0967199363512001E-2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3">
-        <v>22</v>
-      </c>
-      <c r="M11" s="3">
-        <v>24</v>
-      </c>
-      <c r="N11" s="3">
-        <v>15</v>
-      </c>
-      <c r="O11" s="3">
-        <v>24</v>
-      </c>
-      <c r="P11" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17</v>
-      </c>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.488657440433728</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.285283776996484</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.65014415347018495</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.41614271092264898</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.23584035134851</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2.2738013978190299E-76</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4.4019516859059401E-4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>30</v>
-      </c>
-      <c r="L12" s="3">
-        <v>18</v>
-      </c>
-      <c r="M12" s="3">
-        <v>29</v>
-      </c>
-      <c r="N12" s="3">
-        <v>20</v>
-      </c>
-      <c r="O12" s="3">
-        <v>29</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>11</v>
-      </c>
-      <c r="R12" s="19"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.20958767299186701</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.36966348568558499</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.77965260851746898</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.53234358430540796</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.423775229365358</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2.0611234496925501E-8</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.19090094609563699</v>
-      </c>
-      <c r="K13" s="3">
-        <v>19</v>
-      </c>
-      <c r="L13" s="3">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3">
-        <v>21</v>
-      </c>
-      <c r="N13" s="3">
-        <v>18</v>
-      </c>
-      <c r="O13" s="3">
-        <v>22</v>
-      </c>
-      <c r="P13" s="3">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>25</v>
-      </c>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.16692823512626601</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.42742340532395701</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.77501958270055105</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.53010927691234599</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.41538987076886602</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.9866034373094902E-9</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.21202619928083999</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3">
-        <v>27</v>
-      </c>
-      <c r="M14" s="3">
-        <v>22</v>
-      </c>
-      <c r="N14" s="3">
-        <v>19</v>
-      </c>
-      <c r="O14" s="3">
-        <v>23</v>
-      </c>
-      <c r="P14" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>26</v>
-      </c>
-      <c r="R14" s="19"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.19075474390069899</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.38623807132094401</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.78173922041396304</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.53714285714285703</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.43680740819778302</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6.4788461273668197E-7</v>
-      </c>
-      <c r="J15" s="1">
-        <v>7.2204802745726496E-4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>15</v>
-      </c>
-      <c r="L15" s="3">
-        <v>26</v>
-      </c>
-      <c r="M15" s="3">
-        <v>20</v>
-      </c>
-      <c r="N15" s="3">
-        <v>16</v>
-      </c>
-      <c r="O15" s="3">
-        <v>20</v>
-      </c>
-      <c r="P15" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>13</v>
-      </c>
-      <c r="R15" s="19"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.203024682551005</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.37468608739326897</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.77470499828770001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.53444945267224697</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.42925946040962298</v>
-      </c>
-      <c r="I16" s="2">
-        <v>7.7023911804197098E-8</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5.3212150838961099E-4</v>
-      </c>
-      <c r="K16" s="3">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3">
-        <v>25</v>
-      </c>
-      <c r="M16" s="3">
-        <v>23</v>
-      </c>
-      <c r="N16" s="3">
-        <v>17</v>
-      </c>
-      <c r="O16" s="3">
-        <v>21</v>
-      </c>
-      <c r="P16" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>12</v>
-      </c>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.38231964719477302</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.46535982814178301</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.60581007969588896</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.181606731580507</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.16198354705715701</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.9438478167904801E-157</v>
-      </c>
-      <c r="J17" s="2">
-        <v>7.7983504951520107E-5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>29</v>
-      </c>
-      <c r="L17" s="3">
-        <v>29</v>
-      </c>
-      <c r="M17" s="3">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3">
-        <v>30</v>
-      </c>
-      <c r="O17" s="3">
-        <v>30</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3</v>
-      </c>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.30356342711600498</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.346401718582169</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.73791470479550003</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.25580662112454</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.35154508389185601</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.14526441234658599</v>
-      </c>
-      <c r="K18" s="3">
-        <v>24</v>
-      </c>
-      <c r="L18" s="3">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3">
-        <v>27</v>
-      </c>
-      <c r="N18" s="3">
-        <v>29</v>
-      </c>
-      <c r="O18" s="3">
-        <v>27</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>24</v>
-      </c>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.18735702662547399</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.489930182599355</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.73525290127644005</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.27999705188679203</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.35061582265993402</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>7.4017394490221197E-2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>13</v>
-      </c>
-      <c r="L19" s="3">
-        <v>30</v>
-      </c>
-      <c r="M19" s="3">
-        <v>28</v>
-      </c>
-      <c r="N19" s="3">
-        <v>26</v>
-      </c>
-      <c r="O19" s="3">
-        <v>28</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>22</v>
-      </c>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.311664269037568</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.32867883995703501</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.74511711895270705</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.25720826152935999</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.36083973219676402</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>8.9999510572977794E-5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>26</v>
-      </c>
-      <c r="L20" s="3">
-        <v>20</v>
-      </c>
-      <c r="M20" s="3">
-        <v>26</v>
-      </c>
-      <c r="N20" s="3">
-        <v>28</v>
-      </c>
-      <c r="O20" s="3">
-        <v>26</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4</v>
-      </c>
-      <c r="R20" s="19"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.30705374619720299</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.33351235230934401</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.745537561079887</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.25819203162384202</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.36310687983818901</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4.3732260247293197E-4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>25</v>
-      </c>
-      <c r="L21" s="3">
-        <v>21</v>
-      </c>
-      <c r="M21" s="3">
-        <v>25</v>
-      </c>
-      <c r="N21" s="3">
-        <v>27</v>
-      </c>
-      <c r="O21" s="3">
-        <v>25</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>10</v>
-      </c>
-      <c r="R21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.13424980717753E-5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.7777777777777701E-3</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.99985618657653097</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.99722222222222201</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.99721087972415001</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5.7835609617060099E-9</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5.7506465223900903E-3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.7777777777777701E-3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.99990040656554102</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.58564437194127195</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.99269656549158303</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.8753441321800899E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3">
-        <v>14</v>
-      </c>
-      <c r="O23" s="3">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>14</v>
-      </c>
-      <c r="R23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.5388593983939E-3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.7777777777777701E-3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.999939553937359</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.69641125121241498</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.99419377523705799</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>6.6389177129373795E-5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2</v>
-      </c>
-      <c r="R24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.83376434826006E-3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.7777777777777701E-3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.99993912859368095</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.67928098391674496</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.99397826777369402</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.5085328136407901E-4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>4</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>2</v>
-      </c>
-      <c r="N25" s="3">
-        <v>9</v>
-      </c>
-      <c r="O25" s="3">
-        <v>3</v>
-      </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>6</v>
-      </c>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2.73354203529785E-3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8.3333333333333297E-3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.99918671138131399</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.74530271398747305</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.98897849462365595</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>9.3412590820921097E-5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
-        <v>7</v>
-      </c>
-      <c r="O26" s="3">
-        <v>5</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>5</v>
-      </c>
-      <c r="R26" s="19"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.11645075252429</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.42819148936170198</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.81088445196501402</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.35766271574131803</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.49038412331832198</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1.5907207602845901E-4</v>
-      </c>
-      <c r="K27" s="3">
-        <v>6</v>
-      </c>
-      <c r="L27" s="3">
-        <v>28</v>
-      </c>
-      <c r="M27" s="3">
-        <v>18</v>
-      </c>
-      <c r="N27" s="3">
-        <v>22</v>
-      </c>
-      <c r="O27" s="3">
-        <v>18</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>7</v>
-      </c>
-      <c r="R27" s="19"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.21311202133739701</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.22007978723404201</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.85915563830800501</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.32804306788785498</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.57098977566142195</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>6.18358654642393E-3</v>
-      </c>
-      <c r="K28" s="3">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3">
-        <v>12</v>
-      </c>
-      <c r="M28" s="3">
-        <v>12</v>
-      </c>
-      <c r="N28" s="3">
-        <v>25</v>
-      </c>
-      <c r="O28" s="3">
-        <v>11</v>
-      </c>
-      <c r="P28" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>15</v>
-      </c>
-      <c r="R28" s="19"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.15079062678605401</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.30452127659574402</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.85364978492610499</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.36599020293911799</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.56269874606307901</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>9.8072901335218704E-3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3">
-        <v>19</v>
-      </c>
-      <c r="M29" s="3">
-        <v>14</v>
-      </c>
-      <c r="N29" s="3">
-        <v>21</v>
-      </c>
-      <c r="O29" s="3">
-        <v>13</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>16</v>
-      </c>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.19139359878071999</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.24867021276595699</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.85945960008086597</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.33972190905674499</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.56103758872003895</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.4079008661109401E-4</v>
-      </c>
-      <c r="K30" s="3">
-        <v>17</v>
-      </c>
-      <c r="L30" s="3">
-        <v>14</v>
-      </c>
-      <c r="M30" s="3">
-        <v>11</v>
-      </c>
-      <c r="N30" s="3">
-        <v>23</v>
-      </c>
-      <c r="O30" s="3">
-        <v>14</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>9</v>
-      </c>
-      <c r="R30" s="19"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.18953610211468799</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.26063829787234</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.85763710010746697</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.33719960579182701</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.55742627521756904</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.3097247351658E-4</v>
-      </c>
-      <c r="K31" s="3">
-        <v>14</v>
-      </c>
-      <c r="L31" s="3">
-        <v>16</v>
-      </c>
-      <c r="M31" s="3">
-        <v>13</v>
-      </c>
-      <c r="N31" s="3">
-        <v>24</v>
-      </c>
-      <c r="O31" s="3">
-        <v>16</v>
-      </c>
-      <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>8</v>
-      </c>
-      <c r="R31" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D31">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F31">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J31">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:Q31">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD140F4-F794-B149-ACF3-B36202CDA592}">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -6246,12 +4280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7BBEE3-49F9-D343-A5AC-BF05A4D7F19B}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6259,8 +4293,11 @@
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
